--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\Proyecto_Hipermedial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F3AB5-218F-4C30-AF70-EBD95203D9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A674F-9FA3-4A4E-80FB-F4C934BF2560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="142">
   <si>
     <t>Identificación</t>
   </si>
@@ -422,6 +422,36 @@
   </si>
   <si>
     <t>Cuando se registra un nuevo usuario, validar que la contraseña ingresada sea la que el usuario desea.</t>
+  </si>
+  <si>
+    <t>R-35</t>
+  </si>
+  <si>
+    <t>Cancelar pedidod</t>
+  </si>
+  <si>
+    <t>Poder cancelar un pedido para posteriormente solicitar un reembolso en caso se lleve a cabo correctamente</t>
+  </si>
+  <si>
+    <t>R-36</t>
+  </si>
+  <si>
+    <t>Reembolso</t>
+  </si>
+  <si>
+    <t>Poder reembolsar al cliente en caso de cancelar un pedido</t>
+  </si>
+  <si>
+    <t>R-37</t>
+  </si>
+  <si>
+    <t>Conexión con redes sociales</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder registrarse usando redes sociales </t>
   </si>
 </sst>
 </file>
@@ -841,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,6 +1801,84 @@
         <v>125</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>

--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\Proyecto_Hipermedial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A674F-9FA3-4A4E-80FB-F4C934BF2560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147CFDD5-4227-4217-A289-22310CC051A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="154">
   <si>
     <t>Identificación</t>
   </si>
@@ -451,7 +451,43 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Poder registrarse usando redes sociales </t>
+    <t>Poder registrarse usando redes sociales para evitar perder tiempo en crear usuario</t>
+  </si>
+  <si>
+    <t>R-38</t>
+  </si>
+  <si>
+    <t>Implementar notificaciones</t>
+  </si>
+  <si>
+    <t>Si elm usuario tiene eventos pendientes o de su interes, notificar sobre estos al usuario</t>
+  </si>
+  <si>
+    <t>R-39</t>
+  </si>
+  <si>
+    <t>Preferencias de usuario</t>
+  </si>
+  <si>
+    <t>Realizar una encuesta post-creacion de usuario para recolectar datos sobre los interes del usuario</t>
+  </si>
+  <si>
+    <t>R-40</t>
+  </si>
+  <si>
+    <t>User Targeted Advertising</t>
+  </si>
+  <si>
+    <t>Informar de eventos en base a los intereses del usuario, a manera de beneficiar a empresas afiliadas</t>
+  </si>
+  <si>
+    <t>User Agreement</t>
+  </si>
+  <si>
+    <t>Realizar un acuerdo de usuario con bases legales para evitar problemas legales</t>
+  </si>
+  <si>
+    <t>Adminstrador de Usuario, Usuario</t>
   </si>
 </sst>
 </file>
@@ -871,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>138</v>
       </c>
@@ -1876,6 +1912,110 @@
         <v>27</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>125</v>
       </c>
     </row>

--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\Proyecto_Hipermedial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147CFDD5-4227-4217-A289-22310CC051A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC81B5E-9136-40DB-B88C-FECA4B9EB077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla de matriz requisitos" sheetId="1" r:id="rId1"/>
@@ -909,25 +909,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,7 +953,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -979,7 +979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>129</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>135</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>138</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>142</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>145</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>148</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>148</v>
       </c>

--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Documents\GitHub\Proyecto_Hipermedial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC81B5E-9136-40DB-B88C-FECA4B9EB077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DDB4F4-18B8-4203-9A03-014D925F8CB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla de matriz requisitos" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <t>R-35</t>
   </si>
   <si>
-    <t>Cancelar pedidod</t>
-  </si>
-  <si>
     <t>Poder cancelar un pedido para posteriormente solicitar un reembolso en caso se lleve a cabo correctamente</t>
   </si>
   <si>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>Adminstrador de Usuario, Usuario</t>
+  </si>
+  <si>
+    <t>Cancelar pedidos</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -909,25 +909,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="26.5234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5234375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.68359375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.41796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.41796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,7 +953,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -979,7 +979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>129</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>131</v>
@@ -1837,18 +1837,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>27</v>
@@ -1863,18 +1863,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>10</v>
@@ -1889,18 +1889,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>26</v>
@@ -1915,18 +1915,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>26</v>
@@ -1941,18 +1941,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>27</v>
@@ -1967,18 +1967,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>27</v>
@@ -1993,24 +1993,24 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>10</v>

--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\Proyecto_Hipermedial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC81B5E-9136-40DB-B88C-FECA4B9EB077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7DE65-1952-47B7-A36B-44B826328B3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla de matriz requisitos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="155">
   <si>
     <t>Identificación</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Adminstrador de Usuario, Usuario</t>
+  </si>
+  <si>
+    <t>R-41</t>
   </si>
 </sst>
 </file>
@@ -909,25 +912,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,7 +956,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -979,7 +982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>129</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>135</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>138</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>142</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>145</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>148</v>
       </c>
@@ -1993,9 +1996,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>151</v>

--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\Proyecto_Hipermedial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7DE65-1952-47B7-A36B-44B826328B3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59355866-014A-488C-A6C6-A57F7510FA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
